--- a/assets/X56 Elite Dangerous Map.xlsx
+++ b/assets/X56 Elite Dangerous Map.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2c84bb8da26d12f/Gaming/Elite Dangerous/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\foss\EdBindings\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1060" documentId="8_{107E67AB-FD73-49B1-B7FB-5DC2ECB26C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB0C8534-0478-4633-B49E-EA4516676643}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECBFC42-2297-4F72-B480-13A21D9CD11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39465" yWindow="1245" windowWidth="28800" windowHeight="15435" xr2:uid="{19E17A5C-942A-45A8-AB5E-7E7676C1A536}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{19E17A5C-942A-45A8-AB5E-7E7676C1A536}"/>
   </bookViews>
   <sheets>
     <sheet name="X56 Lookup" sheetId="1" r:id="rId1"/>
     <sheet name="XML Element Lookup" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'XML Element Lookup'!$A$1:$G$383</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -853,15 +856,9 @@
     <t>MoveFreeCamY</t>
   </si>
   <si>
-    <t>MoveFreeCamBackward</t>
-  </si>
-  <si>
     <t>MoveFreeCamForward</t>
   </si>
   <si>
-    <t>FoveFreeCamX</t>
-  </si>
-  <si>
     <t>MoveFreeCamRight</t>
   </si>
   <si>
@@ -1771,9 +1768,6 @@
     <t>BackwardThrustButton</t>
   </si>
   <si>
-    <t>UseAltenateFlightValuesToggle</t>
-  </si>
-  <si>
     <t>YawAxisAlternate</t>
   </si>
   <si>
@@ -1852,9 +1846,6 @@
     <t>RollRightButton_Landing</t>
   </si>
   <si>
-    <t>LeteralThrust_Landing</t>
-  </si>
-  <si>
     <t>LeftThrustButton_Landing</t>
   </si>
   <si>
@@ -2203,9 +2194,6 @@
     <t>ExplorationSAANextGenus</t>
   </si>
   <si>
-    <t>ExplorationSAAPreviousDenus</t>
-  </si>
-  <si>
     <t>SAAThirdPersonYawAxisRaw</t>
   </si>
   <si>
@@ -2239,12 +2227,6 @@
     <t>SteeringAxis</t>
   </si>
   <si>
-    <t>SteeringLeftButton</t>
-  </si>
-  <si>
-    <t>SteeringRightButton</t>
-  </si>
-  <si>
     <t>BuggyRollAxisRaw</t>
   </si>
   <si>
@@ -2338,9 +2320,6 @@
     <t>IncreaseSystemsPower_Buggy</t>
   </si>
   <si>
-    <t>ResetPoswerDistribution_Buggy</t>
-  </si>
-  <si>
     <t>ToggleCargoScoop_Buggy</t>
   </si>
   <si>
@@ -2494,9 +2473,6 @@
     <t>HumanoidSelectNextGrenadeTypeButton</t>
   </si>
   <si>
-    <t>HumanoidSelectPreviosuGrenadeTypeButton</t>
-  </si>
-  <si>
     <t>HumanoidToggleFlashlightButton</t>
   </si>
   <si>
@@ -2524,9 +2500,6 @@
     <t>HumanoidSelectShieldGrenade</t>
   </si>
   <si>
-    <t>HumanoidSwitchToRechardgeTool</t>
-  </si>
-  <si>
     <t>HumanoidSwitchToCompAnalyser</t>
   </si>
   <si>
@@ -2536,9 +2509,6 @@
     <t>HumanoidToggleToolModeButton</t>
   </si>
   <si>
-    <t>HumanoidToggleMissionHelpPanel</t>
-  </si>
-  <si>
     <t>GalaxyMapOpen_Humanoid</t>
   </si>
   <si>
@@ -2564,6 +2534,39 @@
   </si>
   <si>
     <t>Action</t>
+  </si>
+  <si>
+    <t>UseAlternateFlightValuesToggle</t>
+  </si>
+  <si>
+    <t>LateralThrust_Landing</t>
+  </si>
+  <si>
+    <t>SteerRightButton</t>
+  </si>
+  <si>
+    <t>SteerLeftButton</t>
+  </si>
+  <si>
+    <t>ResetPowerDistribution_Buggy</t>
+  </si>
+  <si>
+    <t>MoveFreeCamBackwards</t>
+  </si>
+  <si>
+    <t>MoveFreeCamX</t>
+  </si>
+  <si>
+    <t>ExplorationSAAPreviousGenus</t>
+  </si>
+  <si>
+    <t>HumanoidSelectPreviousGrenadeTypeButton</t>
+  </si>
+  <si>
+    <t>HumanoidToggleMissionHelpPanelButton</t>
+  </si>
+  <si>
+    <t>HumanoidSwitchToRechargeTool</t>
   </si>
 </sst>
 </file>
@@ -2926,8 +2929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3B3A9E-4690-4D47-A5F3-DEEAC763C691}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4079,8 +4082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4FCD5A-13F2-4979-92A7-DD7DA8BB5930}">
   <dimension ref="A1:G383"/>
   <sheetViews>
-    <sheetView topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="E370" sqref="E370"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="A373" sqref="A373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4091,16 +4094,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="B1" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="C1" t="s">
         <v>114</v>
       </c>
       <c r="D1" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -5031,7 +5034,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>120</v>
@@ -5049,7 +5052,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>272</v>
+        <v>837</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>120</v>
@@ -5062,12 +5065,12 @@
       </c>
       <c r="E54" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{"code": "MoveFreeCamBackward", "area": "General Controls", "category": "Free Camera", "action": "Move Backward"},</v>
+        <v>{"code": "MoveFreeCamBackwards", "area": "General Controls", "category": "Free Camera", "action": "Move Backward"},</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>274</v>
+        <v>838</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>120</v>
@@ -5080,12 +5083,12 @@
       </c>
       <c r="E55" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>{"code": "FoveFreeCamX", "area": "General Controls", "category": "Free Camera", "action": "Lateral Axis"},</v>
+        <v>{"code": "MoveFreeCamX", "area": "General Controls", "category": "Free Camera", "action": "Lateral Axis"},</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>120</v>
@@ -5103,7 +5106,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>120</v>
@@ -5121,7 +5124,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>120</v>
@@ -5139,7 +5142,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>120</v>
@@ -5157,7 +5160,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>120</v>
@@ -5175,7 +5178,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>120</v>
@@ -5193,7 +5196,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>120</v>
@@ -5211,7 +5214,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>120</v>
@@ -5229,7 +5232,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>120</v>
@@ -5247,7 +5250,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>120</v>
@@ -5265,7 +5268,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>120</v>
@@ -5283,7 +5286,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>120</v>
@@ -5301,7 +5304,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>120</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>120</v>
@@ -5337,7 +5340,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>120</v>
@@ -5355,7 +5358,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>120</v>
@@ -5373,7 +5376,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>120</v>
@@ -5391,7 +5394,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>120</v>
@@ -5409,7 +5412,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>120</v>
@@ -5427,7 +5430,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>120</v>
@@ -5445,7 +5448,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>120</v>
@@ -5463,7 +5466,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>120</v>
@@ -5481,7 +5484,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>120</v>
@@ -5499,7 +5502,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>120</v>
@@ -5517,7 +5520,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>120</v>
@@ -5535,7 +5538,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>201</v>
@@ -5553,7 +5556,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>201</v>
@@ -5571,7 +5574,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>201</v>
@@ -5589,7 +5592,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>120</v>
@@ -5598,7 +5601,7 @@
         <v>202</v>
       </c>
       <c r="D84" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E84" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5607,7 +5610,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>120</v>
@@ -5625,7 +5628,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>120</v>
@@ -5643,7 +5646,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>120</v>
@@ -5661,7 +5664,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>120</v>
@@ -5679,7 +5682,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>120</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>120</v>
@@ -5715,7 +5718,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>120</v>
@@ -5733,7 +5736,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>120</v>
@@ -5751,7 +5754,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>120</v>
@@ -5769,7 +5772,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>120</v>
@@ -5787,16 +5790,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D95" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E95" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5805,13 +5808,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D96" t="s">
         <v>186</v>
@@ -5823,13 +5826,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D97" t="s">
         <v>187</v>
@@ -5841,13 +5844,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D98" t="s">
         <v>188</v>
@@ -5859,16 +5862,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D99" t="s">
         <v>317</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D99" t="s">
-        <v>319</v>
       </c>
       <c r="E99" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5877,13 +5880,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D100" t="s">
         <v>189</v>
@@ -5895,13 +5898,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D101" t="s">
         <v>190</v>
@@ -5913,13 +5916,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D102" t="s">
         <v>191</v>
@@ -5931,13 +5934,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D103" t="s">
         <v>183</v>
@@ -5949,13 +5952,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D104" t="s">
         <v>184</v>
@@ -5967,13 +5970,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D105" t="s">
         <v>185</v>
@@ -5985,16 +5988,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D106" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E106" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6003,16 +6006,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D107" t="s">
         <v>320</v>
-      </c>
-      <c r="D107" t="s">
-        <v>322</v>
       </c>
       <c r="E107" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6021,16 +6024,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D108" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E108" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6039,16 +6042,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D109" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E109" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6057,16 +6060,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D110" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E110" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6075,16 +6078,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D111" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E111" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6093,16 +6096,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D112" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E112" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6111,16 +6114,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D113" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E113" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6129,16 +6132,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D114" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E114" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6147,31 +6150,31 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>578</v>
+        <v>832</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D115" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E115" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"code": "UseAltenateFlightValuesToggle", "area": "Ship Controls", "category": "Alternate Flight Controls", "action": "Alternate Controls Toggle"},</v>
+        <v>{"code": "UseAlternateFlightValuesToggle", "area": "Ship Controls", "category": "Alternate Flight Controls", "action": "Alternate Controls Toggle"},</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D116" t="s">
         <v>186</v>
@@ -6183,13 +6186,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D117" t="s">
         <v>189</v>
@@ -6201,13 +6204,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D118" t="s">
         <v>183</v>
@@ -6219,16 +6222,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D119" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E119" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6237,16 +6240,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D120" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E120" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6255,16 +6258,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D121" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E121" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6276,7 +6279,7 @@
         <v>118</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>119</v>
@@ -6291,16 +6294,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D123" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E123" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6309,16 +6312,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D124" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E124" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6327,16 +6330,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D125" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E125" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6345,16 +6348,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D126" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E126" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6363,16 +6366,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D127" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E127" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6381,16 +6384,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D128" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E128" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6399,16 +6402,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D129" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E129" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6417,16 +6420,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D130" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E130" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6435,16 +6438,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D131" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E131" s="1" t="str">
         <f t="shared" ref="E131:E194" si="2">_xlfn.CONCAT("{""code"": """, A131, """, ""area"": """, B131, """, ""category"": """, C131, """, ""action"": """, D131, """},")</f>
@@ -6453,16 +6456,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D132" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E132" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6471,16 +6474,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D133" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E133" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6489,13 +6492,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D134" t="s">
         <v>186</v>
@@ -6507,13 +6510,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D135" t="s">
         <v>187</v>
@@ -6525,16 +6528,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D136" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E136" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6543,13 +6546,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D137" t="s">
         <v>183</v>
@@ -6561,13 +6564,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D138" t="s">
         <v>184</v>
@@ -6579,13 +6582,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D139" t="s">
         <v>185</v>
@@ -6597,13 +6600,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D140" t="s">
         <v>189</v>
@@ -6615,13 +6618,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D141" t="s">
         <v>190</v>
@@ -6633,13 +6636,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D142" t="s">
         <v>191</v>
@@ -6651,34 +6654,34 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>605</v>
+        <v>833</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D143" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E143" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>{"code": "LeteralThrust_Landing", "area": "Ship Controls", "category": "Flight Landing Overrides", "action": "Lateral Thrust Axis"},</v>
+        <v>{"code": "LateralThrust_Landing", "area": "Ship Controls", "category": "Flight Landing Overrides", "action": "Lateral Thrust Axis"},</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D144" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E144" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6687,16 +6690,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D145" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E145" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6705,16 +6708,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C146" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D146" t="s">
         <v>344</v>
-      </c>
-      <c r="D146" t="s">
-        <v>346</v>
       </c>
       <c r="E146" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6723,16 +6726,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D147" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E147" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6741,16 +6744,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D148" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E148" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6759,16 +6762,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D149" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E149" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6777,16 +6780,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D150" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E150" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6795,16 +6798,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D151" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E151" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6813,16 +6816,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D152" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E152" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6831,16 +6834,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C153" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D153" t="s">
         <v>348</v>
-      </c>
-      <c r="D153" t="s">
-        <v>350</v>
       </c>
       <c r="E153" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6849,16 +6852,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D154" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E154" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6867,16 +6870,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D155" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E155" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6885,16 +6888,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D156" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E156" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6903,16 +6906,16 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D157" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E157" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6921,16 +6924,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D158" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E158" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6939,16 +6942,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D159" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E159" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6957,16 +6960,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C160" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D160" t="s">
         <v>356</v>
-      </c>
-      <c r="D160" t="s">
-        <v>358</v>
       </c>
       <c r="E160" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6975,16 +6978,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D161" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E161" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6993,16 +6996,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D162" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E162" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7011,16 +7014,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D163" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E163" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7029,16 +7032,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D164" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E164" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7047,16 +7050,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D165" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E165" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7065,16 +7068,16 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D166" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E166" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7083,16 +7086,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D167" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E167" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7101,16 +7104,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D168" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E168" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7119,16 +7122,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D169" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E169" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7137,16 +7140,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D170" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E170" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7155,16 +7158,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D171" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E171" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7173,16 +7176,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D172" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E172" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7191,16 +7194,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D173" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E173" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7209,16 +7212,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C174" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D174" t="s">
         <v>370</v>
-      </c>
-      <c r="D174" t="s">
-        <v>372</v>
       </c>
       <c r="E174" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7227,16 +7230,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D175" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E175" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7245,16 +7248,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D176" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E176" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7263,16 +7266,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D177" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E177" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7281,16 +7284,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D178" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E178" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7299,16 +7302,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C179" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D179" t="s">
         <v>376</v>
-      </c>
-      <c r="D179" t="s">
-        <v>378</v>
       </c>
       <c r="E179" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7317,16 +7320,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D180" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E180" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7335,16 +7338,16 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C181" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D181" t="s">
         <v>379</v>
-      </c>
-      <c r="D181" t="s">
-        <v>381</v>
       </c>
       <c r="E181" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7353,16 +7356,16 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D182" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E182" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7371,16 +7374,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D183" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E183" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7389,16 +7392,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D184" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E184" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7407,16 +7410,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D185" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E185" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7425,16 +7428,16 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D186" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E186" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7443,16 +7446,16 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D187" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E187" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7461,16 +7464,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D188" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E188" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7479,16 +7482,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D189" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E189" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7497,16 +7500,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D190" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E190" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7515,16 +7518,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D191" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E191" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7533,16 +7536,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D192" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E192" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7551,16 +7554,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D193" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E193" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7569,16 +7572,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D194" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E194" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7587,16 +7590,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D195" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E195" s="1" t="str">
         <f t="shared" ref="E195:E258" si="3">_xlfn.CONCAT("{""code"": """, A195, """, ""area"": """, B195, """, ""category"": """, C195, """, ""action"": """, D195, """},")</f>
@@ -7605,16 +7608,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D196" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E196" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7623,16 +7626,16 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D197" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E197" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7641,16 +7644,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D198" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E198" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7659,16 +7662,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D199" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E199" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7680,13 +7683,13 @@
         <v>216</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C200" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D200" t="s">
         <v>399</v>
-      </c>
-      <c r="D200" t="s">
-        <v>401</v>
       </c>
       <c r="E200" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7698,13 +7701,13 @@
         <v>221</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D201" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E201" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7713,16 +7716,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D202" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E202" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7734,13 +7737,13 @@
         <v>222</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D203" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E203" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7752,13 +7755,13 @@
         <v>217</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D204" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E204" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7767,16 +7770,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D205" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E205" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7785,16 +7788,16 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D206" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E206" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7803,16 +7806,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D207" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E207" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7821,16 +7824,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D208" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E208" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7842,13 +7845,13 @@
         <v>250</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D209" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E209" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7857,16 +7860,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D210" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E210" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7875,16 +7878,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D211" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E211" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7893,16 +7896,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D212" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E212" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7911,16 +7914,16 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D213" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E213" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7929,16 +7932,16 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D214" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E214" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7947,16 +7950,16 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C215" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D215" t="s">
         <v>414</v>
-      </c>
-      <c r="D215" t="s">
-        <v>416</v>
       </c>
       <c r="E215" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7965,16 +7968,16 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D216" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E216" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7983,16 +7986,16 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D217" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E217" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8001,16 +8004,16 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D218" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E218" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8019,16 +8022,16 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D219" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E219" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8037,16 +8040,16 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D220" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E220" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8055,16 +8058,16 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D221" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E221" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8073,16 +8076,16 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D222" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E222" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8091,16 +8094,16 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D223" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E223" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8109,16 +8112,16 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C224" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D224" t="s">
         <v>422</v>
-      </c>
-      <c r="D224" t="s">
-        <v>424</v>
       </c>
       <c r="E224" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8127,16 +8130,16 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D225" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E225" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8145,16 +8148,16 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D226" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E226" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8163,16 +8166,16 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D227" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E227" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8181,16 +8184,16 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D228" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E228" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8199,16 +8202,16 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D229" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E229" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8217,16 +8220,16 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D230" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E230" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8235,16 +8238,16 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D231" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E231" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8253,16 +8256,16 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D232" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E232" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8271,16 +8274,16 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D233" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E233" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8289,16 +8292,16 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D234" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E234" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8307,16 +8310,16 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D235" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E235" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8325,16 +8328,16 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D236" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E236" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8343,16 +8346,16 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D237" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E237" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8361,16 +8364,16 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C238" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D238" t="s">
         <v>437</v>
-      </c>
-      <c r="D238" t="s">
-        <v>439</v>
       </c>
       <c r="E238" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8379,16 +8382,16 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D239" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E239" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8397,16 +8400,16 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D240" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E240" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8415,16 +8418,16 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D241" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E241" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8433,16 +8436,16 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D242" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E242" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8451,16 +8454,16 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D243" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E243" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8469,16 +8472,16 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D244" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E244" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8487,16 +8490,16 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D245" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E245" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8505,16 +8508,16 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D246" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E246" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8523,16 +8526,16 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C247" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D247" t="s">
         <v>446</v>
-      </c>
-      <c r="D247" t="s">
-        <v>448</v>
       </c>
       <c r="E247" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8541,16 +8544,16 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D248" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E248" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8559,16 +8562,16 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D249" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E249" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8577,16 +8580,16 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D250" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E250" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8595,16 +8598,16 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D251" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E251" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8613,16 +8616,16 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D252" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E252" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8631,16 +8634,16 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D253" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E253" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8649,16 +8652,16 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D254" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E254" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8667,16 +8670,16 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D255" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E255" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8685,16 +8688,16 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D256" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E256" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8703,16 +8706,16 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D257" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E257" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8721,16 +8724,16 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D258" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E258" s="1" t="str">
         <f t="shared" si="3"/>
@@ -8739,16 +8742,16 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D259" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E259" s="1" t="str">
         <f t="shared" ref="E259:E322" si="4">_xlfn.CONCAT("{""code"": """, A259, """, ""area"": """, B259, """, ""category"": """, C259, """, ""action"": """, D259, """},")</f>
@@ -8757,16 +8760,16 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D260" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E260" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8775,16 +8778,16 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D261" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E261" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8793,16 +8796,16 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D262" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E262" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8811,16 +8814,16 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D263" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E263" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8829,16 +8832,16 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C264" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D264" t="s">
         <v>466</v>
-      </c>
-      <c r="D264" t="s">
-        <v>468</v>
       </c>
       <c r="E264" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8847,16 +8850,16 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D265" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E265" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8865,34 +8868,34 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>722</v>
+        <v>839</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D266" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E266" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>{"code": "ExplorationSAAPreviousDenus", "area": "Ship Controls", "category": "Detailed Surface Scanner", "action": "Previous Filter"},</v>
+        <v>{"code": "ExplorationSAAPreviousGenus", "area": "Ship Controls", "category": "Detailed Surface Scanner", "action": "Previous Filter"},</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D267" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E267" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8901,16 +8904,16 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D268" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E268" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8919,16 +8922,16 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D269" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E269" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8937,16 +8940,16 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D270" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E270" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8955,16 +8958,16 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D271" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E271" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8973,16 +8976,16 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D272" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E272" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8991,16 +8994,16 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D273" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E273" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9009,16 +9012,16 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D274" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E274" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9027,16 +9030,16 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D275" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E275" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9045,16 +9048,16 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B276" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D276" t="s">
         <v>471</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="D276" t="s">
-        <v>473</v>
       </c>
       <c r="E276" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9063,16 +9066,16 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C277" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D277" t="s">
         <v>472</v>
-      </c>
-      <c r="D277" t="s">
-        <v>474</v>
       </c>
       <c r="E277" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9081,49 +9084,49 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>734</v>
+        <v>835</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D278" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E278" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>{"code": "SteeringLeftButton", "area": "SRV Controls", "category": "Driving", "action": "Steering Left Button"},</v>
+        <v>{"code": "SteerLeftButton", "area": "SRV Controls", "category": "Driving", "action": "Steering Left Button"},</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>735</v>
+        <v>834</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D279" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E279" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>{"code": "SteeringRightButton", "area": "SRV Controls", "category": "Driving", "action": "Steering Right Button"},</v>
+        <v>{"code": "SteerRightButton", "area": "SRV Controls", "category": "Driving", "action": "Steering Right Button"},</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D280" t="s">
         <v>189</v>
@@ -9135,16 +9138,16 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D281" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E281" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9153,16 +9156,16 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D282" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E282" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9171,13 +9174,13 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D283" t="s">
         <v>183</v>
@@ -9189,16 +9192,16 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D284" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E284" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9207,16 +9210,16 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D285" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E285" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9225,16 +9228,16 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D286" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E286" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9243,16 +9246,16 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D287" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E287" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9261,16 +9264,16 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D288" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E288" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9279,16 +9282,16 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D289" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E289" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9297,16 +9300,16 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D290" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E290" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9315,16 +9318,16 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D291" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E291" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9333,16 +9336,16 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D292" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E292" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9351,16 +9354,16 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D293" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E293" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9369,16 +9372,16 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D294" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E294" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9387,16 +9390,16 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D295" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E295" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9405,16 +9408,16 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C296" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D296" t="s">
         <v>489</v>
-      </c>
-      <c r="D296" t="s">
-        <v>491</v>
       </c>
       <c r="E296" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9423,16 +9426,16 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D297" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E297" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9441,16 +9444,16 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D298" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E298" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9459,16 +9462,16 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D299" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E299" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9477,16 +9480,16 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D300" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E300" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9495,16 +9498,16 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D301" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E301" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9513,13 +9516,13 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D302" t="s">
         <v>117</v>
@@ -9531,16 +9534,16 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C303" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D303" t="s">
         <v>496</v>
-      </c>
-      <c r="D303" t="s">
-        <v>498</v>
       </c>
       <c r="E303" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9549,16 +9552,16 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D304" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E304" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9567,16 +9570,16 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D305" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E305" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9585,16 +9588,16 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D306" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E306" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9603,16 +9606,16 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D307" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E307" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9621,16 +9624,16 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D308" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E308" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9639,16 +9642,16 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D309" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E309" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9657,34 +9660,34 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>767</v>
+        <v>836</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D310" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E310" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>{"code": "ResetPoswerDistribution_Buggy", "area": "SRV Controls", "category": "Driving Miscellaneous", "action": "Balance Power Distribution"},</v>
+        <v>{"code": "ResetPowerDistribution_Buggy", "area": "SRV Controls", "category": "Driving Miscellaneous", "action": "Balance Power Distribution"},</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D311" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E311" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9693,16 +9696,16 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D312" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E312" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9711,16 +9714,16 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D313" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E313" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9729,16 +9732,16 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D314" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E314" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9747,16 +9750,16 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D315" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E315" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9765,16 +9768,16 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D316" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E316" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9783,16 +9786,16 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D317" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E317" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9801,16 +9804,16 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D318" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E318" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9819,16 +9822,16 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D319" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E319" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9837,16 +9840,16 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D320" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E320" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9855,16 +9858,16 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D321" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E321" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9873,16 +9876,16 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D322" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E322" s="1" t="str">
         <f t="shared" si="4"/>
@@ -9891,16 +9894,16 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D323" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E323" s="1" t="str">
         <f t="shared" ref="E323:E383" si="5">_xlfn.CONCAT("{""code"": """, A323, """, ""area"": """, B323, """, ""category"": """, C323, """, ""action"": """, D323, """},")</f>
@@ -9909,16 +9912,16 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D324" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E324" s="1" t="str">
         <f t="shared" si="5"/>
@@ -9927,13 +9930,13 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D325" t="s">
         <v>172</v>
@@ -9945,13 +9948,13 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D326" t="s">
         <v>173</v>
@@ -9963,13 +9966,13 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D327" t="s">
         <v>174</v>
@@ -9981,16 +9984,16 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C328" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D328" t="s">
         <v>506</v>
-      </c>
-      <c r="D328" t="s">
-        <v>508</v>
       </c>
       <c r="E328" s="1" t="str">
         <f t="shared" si="5"/>
@@ -9999,16 +10002,16 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B329" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D329" t="s">
         <v>507</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D329" t="s">
-        <v>509</v>
       </c>
       <c r="E329" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10017,16 +10020,16 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D330" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E330" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10035,16 +10038,16 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D331" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E331" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10053,16 +10056,16 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D332" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E332" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10071,16 +10074,16 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D333" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E333" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10089,13 +10092,13 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D334" t="s">
         <v>183</v>
@@ -10107,16 +10110,16 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D335" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E335" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10125,16 +10128,16 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D336" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E336" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10143,16 +10146,16 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D337" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E337" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10161,16 +10164,16 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D338" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E338" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10179,16 +10182,16 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D339" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E339" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10197,16 +10200,16 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D340" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E340" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10215,16 +10218,16 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D341" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E341" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10233,16 +10236,16 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D342" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E342" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10251,16 +10254,16 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D343" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E343" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10269,16 +10272,16 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D344" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E344" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10287,16 +10290,16 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D345" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E345" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10305,16 +10308,16 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D346" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E346" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10323,16 +10326,16 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D347" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E347" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10341,16 +10344,16 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D348" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E348" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10359,16 +10362,16 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D349" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E349" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10377,16 +10380,16 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D350" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E350" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10395,16 +10398,16 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D351" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E351" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10413,16 +10416,16 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D352" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E352" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10431,16 +10434,16 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D353" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E353" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10449,16 +10452,16 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D354" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E354" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10467,16 +10470,16 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D355" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E355" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10485,16 +10488,16 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D356" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E356" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10503,16 +10506,16 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D357" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E357" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10521,16 +10524,16 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D358" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E358" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10539,16 +10542,16 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D359" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E359" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10557,16 +10560,16 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D360" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E360" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10575,16 +10578,16 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D361" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E361" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10593,16 +10596,16 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D362" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E362" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10611,34 +10614,34 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>819</v>
+        <v>840</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D363" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E363" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>{"code": "HumanoidSelectPreviosuGrenadeTypeButton", "area": "On Foot Controls", "category": "On Foot", "action": "Select Previous Grenade Type"},</v>
+        <v>{"code": "HumanoidSelectPreviousGrenadeTypeButton", "area": "On Foot Controls", "category": "On Foot", "action": "Select Previous Grenade Type"},</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D364" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E364" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10647,16 +10650,16 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D365" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E365" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10665,16 +10668,16 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D366" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E366" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10683,16 +10686,16 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D367" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E367" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10701,16 +10704,16 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D368" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E368" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10719,16 +10722,16 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D369" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E369" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10737,16 +10740,16 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D370" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E370" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10755,16 +10758,16 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D371" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E371" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10773,16 +10776,16 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D372" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E372" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10791,34 +10794,34 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D373" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E373" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>{"code": "HumanoidSwitchToRechardgeTool", "area": "On Foot Controls", "category": "On Foot", "action": "Select Energylink"},</v>
+        <v>{"code": "HumanoidSwitchToRechargeTool", "area": "On Foot Controls", "category": "On Foot", "action": "Select Energylink"},</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D374" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E374" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10827,16 +10830,16 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D375" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E375" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10845,16 +10848,16 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D376" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E376" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10863,34 +10866,34 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D377" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E377" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>{"code": "HumanoidToggleMissionHelpPanel", "area": "On Foot Controls", "category": "On Foot", "action": "Toggle Help"},</v>
+        <v>{"code": "HumanoidToggleMissionHelpPanelButton", "area": "On Foot Controls", "category": "On Foot", "action": "Toggle Help"},</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D378" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E378" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10899,16 +10902,16 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D379" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E379" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10917,16 +10920,16 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D380" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E380" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10935,16 +10938,16 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D381" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E381" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10953,16 +10956,16 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D382" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E382" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10971,16 +10974,16 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C383" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D383" t="s">
         <v>555</v>
-      </c>
-      <c r="D383" t="s">
-        <v>557</v>
       </c>
       <c r="E383" s="1" t="str">
         <f t="shared" si="5"/>
@@ -10988,6 +10991,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G383" xr:uid="{2F4FCD5A-13F2-4979-92A7-DD7DA8BB5930}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
